--- a/XLSXFile_create.xlsx
+++ b/XLSXFile_create.xlsx
@@ -1,58 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="WriteSheet" r:id="rId3" sheetId="1"/>
+    <sheet name="WriteSheet" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Sumit1</t>
-  </si>
-  <si>
-    <t>Sumit2</t>
-  </si>
-  <si>
-    <t>Sumit3</t>
-  </si>
-  <si>
-    <t>Sumit4</t>
-  </si>
-  <si>
-    <t>Sumit5</t>
-  </si>
-  <si>
-    <t>Sumit6</t>
-  </si>
-  <si>
-    <t>Sumit7</t>
-  </si>
-  <si>
-    <t>Sumit8</t>
-  </si>
-  <si>
-    <t>Sumit9</t>
+    <t xml:space="preserve">sumit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chaudhary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">software engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my entered data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in excel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
-    <font>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -60,11 +83,11 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -72,57 +95,107 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.82"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>